--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\Django\hozen_another\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554B861-E64D-4E91-9490-79A64D28AC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B12DA-D7A5-4EA8-953C-0E3878B602BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
   <si>
     <t>突発修理</t>
     <rPh sb="0" eb="2">
@@ -274,115 +274,1135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>く</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>さ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>し</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>す</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>せ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>た</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ち</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>つ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>て</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>と</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>な</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>に</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぬ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ね</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>の</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>は</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
+    <t>突発</t>
+    <rPh sb="0" eb="2">
+      <t>トッパツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>突発対応</t>
+    <rPh sb="0" eb="2">
+      <t>トッパツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>呼び出し</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事後</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事後修理</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改良</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日報記入</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日報</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申し送り</t>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休憩</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日常点検</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RB点検</t>
+    <rPh sb="2" eb="4">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設備点検</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修理</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>兆候</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｲﾑﾃｰﾌﾞﾙ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイムテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検印</t>
+    <rPh sb="0" eb="2">
+      <t>ケンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カード検印</t>
+    <rPh sb="3" eb="5">
+      <t>ケンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>指示カード検印</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予備品</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>調査</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>買い入れ</t>
+    <rPh sb="0" eb="3">
+      <t>カイイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>買入</t>
+    <rPh sb="0" eb="2">
+      <t>カイイレ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>買入れ</t>
+    <rPh sb="0" eb="2">
+      <t>カイイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>見積り</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>見積もり</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4S</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４Ｓ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４S</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2S</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２Ｓ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２S</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>安全MTG</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>安全ミーティング</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ミーティング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>安全ﾐｰﾃｨﾝｸﾞ</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾐｰﾃｨﾝｸﾞ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一斉</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一斉MTG</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一斉ミーティング</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一斉ﾐｰﾃｨﾝｸﾞ</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>YK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>KY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＹＫ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＫＹ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>職場の問題点</t>
+    <rPh sb="0" eb="2">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>職場の問題点洗い出し</t>
+    <rPh sb="0" eb="2">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾚｸ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部長フォロー</t>
+    <rPh sb="0" eb="2">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事業部長フォロー</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保全連絡会</t>
+    <rPh sb="0" eb="2">
+      <t>ホゼン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>レンラクカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>研鑽会</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>組ボード確認会</t>
+    <rPh sb="0" eb="1">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認会</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チップ交換</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾁｯﾌﾟ交換</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チップ準備</t>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾁｯﾌﾟ準備</t>
+    <rPh sb="4" eb="6">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ツール交換</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＯＨ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ｏ.Ｈ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O.H</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オーバーホール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾂｰﾙ交換</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｵｰﾊﾞｰﾎｰﾙ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワイヤーパック交換</t>
+    <rPh sb="7" eb="9">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾜｲﾔｰﾊﾟｯｸ交換</t>
+    <rPh sb="8" eb="10">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アルゴン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｱﾙｺﾞﾝ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メール確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾒｰﾙ確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾒｰﾙ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休日工事</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>連絡</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>連絡帳</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>品質会議</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タガネチェック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>品質管理</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾀｶﾞﾈﾁｪｯｸ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タガネ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾀｶﾞﾈ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォロー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾌｫﾛｰ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォロー会</t>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾌｫﾛｰ会</t>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>組ﾎﾞｰﾄﾞ確認会</t>
+    <rPh sb="0" eb="1">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>課長確認</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>監査</t>
+    <rPh sb="0" eb="2">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＣＯＰ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＣＯＰ監査</t>
+    <rPh sb="3" eb="5">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COP監査</t>
+    <rPh sb="3" eb="5">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>残業管理</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>年休</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>e-shines</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E-shines</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E-SHINES</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イーシャインズ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｲｰｼｬｲﾝｽﾞ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>QC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＱＣ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会合</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提案</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上級提案</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改善提案</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メーカー教育</t>
+    <rPh sb="4" eb="6">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾒｰｶｰ教育</t>
+    <rPh sb="4" eb="6">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>たいき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOILET</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾄｲﾚ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>たばこ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>煙草</t>
+    <rPh sb="0" eb="2">
+      <t>タバコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タバコ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ﾀﾊﾞｺ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>清掃</t>
+    <rPh sb="0" eb="2">
+      <t>セイソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <rPh sb="0" eb="2">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通事故MTG</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通事故ミーティング</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通事故ﾐｰﾃｨﾝｸﾞ</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いいね活動</t>
+    <rPh sb="3" eb="5">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イイネ活動</t>
+    <rPh sb="3" eb="5">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｲｲﾈ活動</t>
+    <rPh sb="3" eb="5">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通安全</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>呼出</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>補佐員</t>
+    <rPh sb="0" eb="3">
+      <t>ホサイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検定</t>
+    <rPh sb="0" eb="2">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>技能検定</t>
+    <rPh sb="0" eb="2">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>国家技能検定</t>
+    <rPh sb="0" eb="2">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>騒音</t>
+    <rPh sb="0" eb="2">
+      <t>ソウオン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>油脂</t>
+    <rPh sb="0" eb="2">
+      <t>ユシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フロン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>環境教育</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コレク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｺﾚｸ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康診断</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検診</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>みんなの時間</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5段階TBM</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検カード検印</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検カード割り振り</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検カード割振り</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ワリフ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検カード配布</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイフ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取り回し</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取り廻し</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>とりまわし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検取り回し</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>点検取り廻し</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>安全MT</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＭＴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>朝ＭＴＧ</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>朝MTG</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>朝ＭＴ</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>朝MT</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -390,7 +1410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +1443,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,8 +1471,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -726,23 +1754,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -755,7 +1783,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -763,7 +1791,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -771,186 +1799,1506 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>111</v>
+      </c>
+      <c r="B161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>111</v>
+      </c>
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="B191" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\Django\hozen_another\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B12DA-D7A5-4EA8-953C-0E3878B602BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0486E21-C4AE-4D1C-8582-FC412DDAF373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="194">
   <si>
     <t>突発修理</t>
     <rPh sb="0" eb="2">
@@ -1403,6 +1403,14 @@
     <rPh sb="0" eb="1">
       <t>アサ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1754,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1767,10 +1775,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1778,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1786,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1794,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1802,15 +1810,15 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1818,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1826,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1834,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1842,15 +1850,15 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1858,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1866,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1874,15 +1882,15 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1890,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1898,15 +1906,15 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>144</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1914,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1922,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1930,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1938,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1946,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1954,15 +1962,15 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1970,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1978,15 +1986,15 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1994,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2002,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2010,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2018,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2026,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2034,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2042,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2050,15 +2058,15 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2066,15 +2074,15 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2082,31 +2090,31 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2114,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2122,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2130,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2138,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2146,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2154,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2162,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2170,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2178,15 +2186,15 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2194,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2202,7 +2210,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2210,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2218,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2226,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2234,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2242,15 +2250,15 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2258,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2266,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2274,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2282,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2290,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2298,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2306,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2314,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2322,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2330,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2338,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2346,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2354,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2362,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2370,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2378,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2386,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2394,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2402,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2410,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2418,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2426,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2434,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2442,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2450,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2458,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2466,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2474,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2482,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2490,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2498,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2506,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2514,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2522,15 +2530,15 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2538,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2546,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2554,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2562,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2570,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2578,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2586,15 +2594,15 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2602,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2610,7 +2618,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2618,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2626,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2634,7 +2642,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2642,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2650,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2658,15 +2666,15 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2674,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2682,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2690,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2698,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2706,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2714,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2722,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2730,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2738,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2746,15 +2754,15 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2762,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2770,15 +2778,15 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2786,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2794,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2802,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2810,7 +2818,7 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2818,7 +2826,7 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2826,7 +2834,7 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2834,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2842,15 +2850,15 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2858,7 +2866,7 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2866,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2874,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2882,15 +2890,15 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2898,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2906,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2914,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2922,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2930,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2938,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2946,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2954,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2962,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2970,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2978,7 +2986,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2986,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2994,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3002,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3010,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3018,15 +3026,15 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3034,15 +3042,15 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3050,7 +3058,7 @@
         <v>111</v>
       </c>
       <c r="B161" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3058,7 +3066,7 @@
         <v>111</v>
       </c>
       <c r="B162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3066,7 +3074,7 @@
         <v>111</v>
       </c>
       <c r="B163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3074,15 +3082,15 @@
         <v>111</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3090,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3098,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3106,39 +3114,39 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3146,7 +3154,7 @@
         <v>25</v>
       </c>
       <c r="B173" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3154,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3162,7 +3170,7 @@
         <v>25</v>
       </c>
       <c r="B175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3170,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3178,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3186,7 +3194,7 @@
         <v>25</v>
       </c>
       <c r="B178" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3194,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3202,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="B180" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3210,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="B181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3218,7 +3226,7 @@
         <v>25</v>
       </c>
       <c r="B182" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3226,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3234,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3242,7 +3250,7 @@
         <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3250,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3258,7 +3266,7 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3266,7 +3274,7 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3274,7 +3282,7 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3282,7 +3290,7 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3290,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3298,6 +3306,14 @@
         <v>25</v>
       </c>
       <c r="B192" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s">
         <v>172</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\Django\hozen_another\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0486E21-C4AE-4D1C-8582-FC412DDAF373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119ADE4-1347-42FE-AFEF-C8A0F3FB1348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,11 +1406,17 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
+    <t>工数定義区分</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業詳細</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54414\Desktop\Django\hozen_another\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119ADE4-1347-42FE-AFEF-C8A0F3FB1348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFADEA5-A5F3-454A-AAB2-ECC7B73567A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="193">
   <si>
     <t>突発修理</t>
     <rPh sb="0" eb="2">
@@ -412,13 +412,6 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>兆候</t>
-    <rPh sb="0" eb="2">
-      <t>チョウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾀｲﾑﾃｰﾌﾞﾙ</t>
@@ -1768,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1781,10 +1774,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1824,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1912,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1928,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1936,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1944,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1952,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1960,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1968,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1976,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2040,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2048,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2056,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2064,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2072,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2101,26 +2094,26 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2128,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2136,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2144,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2168,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2197,10 +2190,10 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2208,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2261,10 +2254,10 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2272,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2368,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2432,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2512,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2528,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2541,10 +2534,10 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2552,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2576,7 +2569,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2584,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2605,10 +2598,10 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2616,7 +2609,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2677,10 +2670,10 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2688,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2744,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2765,10 +2758,10 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2776,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2789,10 +2782,10 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2800,7 +2793,7 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2861,10 +2854,10 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2872,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2901,10 +2894,10 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2912,7 +2905,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2952,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2960,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2968,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2976,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3000,7 +2993,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3037,10 +3030,10 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3048,12 +3041,12 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B160" t="s">
         <v>109</v>
@@ -3061,15 +3054,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" t="s">
         <v>111</v>
-      </c>
-      <c r="B161" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B162" t="s">
         <v>112</v>
@@ -3077,7 +3070,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B163" t="s">
         <v>113</v>
@@ -3085,18 +3078,18 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B164" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3104,7 +3097,7 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3112,7 +3105,7 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3125,34 +3118,34 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3160,7 +3153,7 @@
         <v>25</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3200,7 +3193,7 @@
         <v>25</v>
       </c>
       <c r="B178" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3208,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3216,7 +3209,7 @@
         <v>25</v>
       </c>
       <c r="B180" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3248,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3296,7 +3289,7 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3304,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3313,14 +3306,6 @@
       </c>
       <c r="B192" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>25</v>
-      </c>
-      <c r="B193" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
